--- a/reports/05.01 Transformation Metrics.xlsx
+++ b/reports/05.01 Transformation Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmhenn/Documents/GitHub/Incident-Management-Process-BPIC2014/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBF80B-737E-6C43-9497-ACE8192A602C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3237AD3-206B-FC42-A73C-5803BBD56132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="14880" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05.01 Transformation Metric (2)" sheetId="2" r:id="rId1"/>
@@ -282,6 +282,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -759,9 +762,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -809,13 +813,13 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1227,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C691586-B3CE-2B45-A779-D8D9AFF83E38}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1318,15 +1322,15 @@
       <c r="I3" t="s">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - Cross Validation Accuracy]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.73085818624467402</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - F1 score]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.65857294285972301</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - AUC]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.77668433166720496</v>
       </c>
@@ -1353,15 +1357,15 @@
       <c r="I4" t="s">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - Cross Validation Accuracy]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.73394197606005196</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - F1 score]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.65680006466454399</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - AUC]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.77677671321570896</v>
       </c>
@@ -1388,15 +1392,15 @@
       <c r="I5" t="s">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - Cross Validation Accuracy]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.737756137147494</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - F1 score]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.66146318098063295</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - AUC]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.78062942657099199</v>
       </c>
@@ -1423,15 +1427,15 @@
       <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - Cross Validation Accuracy]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.73678230878474305</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - F1 score]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.66133911189046202</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - AUC]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.76649638507920603</v>
       </c>
@@ -1458,15 +1462,15 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - Cross Validation Accuracy]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.737756137147494</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - F1 score]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.66146318098063295</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f>INDEX(Table3[],MATCH(Table25[[#Headers],[Metrics - AUC]],Table1[Column1],0),MATCH(Table25[[#This Row],[Column1]],Table1[#Headers],0))</f>
         <v>0.78063155894993896</v>
       </c>
@@ -1684,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
